--- a/medicine/Hématologie/Syndrome_de_Dubin-Johnson/Syndrome_de_Dubin-Johnson.xlsx
+++ b/medicine/Hématologie/Syndrome_de_Dubin-Johnson/Syndrome_de_Dubin-Johnson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Dubin-Johnson appelée aussi hyperbilirubinémie type 2, maladie de Dubin-Sprinz et syndrome de Sprinz-Nelson, est une maladie hépatique chronique et bénigne. Elle est héréditaire par transmission autosomique récessive.
 Elle est classée E80.6X-001 dans la classification internationale des maladies-10).
-Son nom est formé à partir des patronymes des deux médecins qui l'ont décrit pour la première fois[1].
+Son nom est formé à partir des patronymes des deux médecins qui l'ont décrit pour la première fois.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa prévalence en population générale est inconnue. Le syndrome de Dubin-Johnson peut atteindre des sujets de toutes origines ethniques, mais paraît plus fréquent chez les juifs iraniens[2] et irakiens[3]  ou les juifs marocains[4] où, par effet fondateur, il est rapporté comme touchant jusqu'à 1/1300 individus[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa prévalence en population générale est inconnue. Le syndrome de Dubin-Johnson peut atteindre des sujets de toutes origines ethniques, mais paraît plus fréquent chez les juifs iraniens et irakiens  ou les juifs marocains où, par effet fondateur, il est rapporté comme touchant jusqu'à 1/1300 individus,.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Dubin-Johnson est lié à des mutations du gène ABCC2, situé sur le chromosome 10q24[7],[8], qui code un transporteur membranaire apical ATP-dépendant qui relaye le transport actif des glucuronides de la bilirubine et autres anions organiques conjugués de l'hépatocyte vers la bile : cette mutation induit une absence ou une insuffisance du transporteur 2MRP2/cMOAT (en) (en anglais : Multidrug resistance-associated protein 2 / canalicular multispecific organic anion transporter 1)[9].
-Ceci entraîne un déficit de l'excrétion biliaire de la bilirubine conjuguée avec une augmentation de cette bilirubine conjuguée dans le sérum sans augmentation des enzymes hépatiques (ALAT, ASAT)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Dubin-Johnson est lié à des mutations du gène ABCC2, situé sur le chromosome 10q24 qui code un transporteur membranaire apical ATP-dépendant qui relaye le transport actif des glucuronides de la bilirubine et autres anions organiques conjugués de l'hépatocyte vers la bile : cette mutation induit une absence ou une insuffisance du transporteur 2MRP2/cMOAT (en) (en anglais : Multidrug resistance-associated protein 2 / canalicular multispecific organic anion transporter 1).
+Ceci entraîne un déficit de l'excrétion biliaire de la bilirubine conjuguée avec une augmentation de cette bilirubine conjuguée dans le sérum sans augmentation des enzymes hépatiques (ALAT, ASAT).
 Ce déficit est associé à la présence, dans les hépatocytes, d'un pigment proche de la mélanine responsable de la coloration foncée ou noire du foie et à une augmentation de l'excrétion urinaire de la coproporphyrine I, normalement excrétée prioritairement dans la bile.
 </t>
         </is>
@@ -579,27 +595,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostic clinique
-Un ictère (anciennement appelé jaunisse) léger à modéré, dû à l'augmentation des concentrations plasmatiques de la bilirubine, non accompagné de prurit révèle souvent la maladie chez un adolescent ou un adulte jeune. Le tableau clinique peut aussi retrouver des douleurs abdominales et une fatigue.
-Les urines sont foncées[1].
-La maladie peut être déclenchée par une affection intercurrente[10]  ou la prise de médicaments.
-L'augmentation de l'ictère par les contraceptifs oraux et la grossesse a été souvent rapportée. Chez les femmes atteintes de la maladie, l'ictère est présent dans environ 50 % des grossesses[11].
-Il peut n'apparaître que dans le post-partum. La mortalité fœtale ne semble pas majorée. De ce fait, chez ces malades, aucune mesure obstétricale particulière n'est justifiée par l'apparition de l'ictère[12].
-L'examen clinique retrouve peu de symptômes si ce n'est parfois une hépatosplénomégalie[5].
-Biologie
-La bilirubinémie totale (à prédominance conjuguée, avec un rapport bilirubine conjuguée/bilirubine totale de 50 à 80 %) est élevée, en général entre 2 et 5 mg/dl (très rarement jusqu'à 20 mg/dl)[5],[13].
-Les enzymes hépatiques (aminotransférases, phosphatases alcalines, gamma-glutamyltranspeptidase), la concentration totale en acides biliaires, l'albuminémie et le temps de Quick sont normaux. La 5'-nucléotidase (en) est normale.
-Un déficit associé en facteur VII est possible, notamment chez les iraniens et les juifs marocains[3],[4].
-La coproporphyrine urinaire[Note 1] est un bon indicateur des états homozygotes ou hétérozygotes dans le syndrome de Dubin-Johnson. La valeur normale de coproporphyrine urinaire excrétée est de 24,8 % alors qu'elles sont respectivement de 88,9 % et 31,6 % chez les homozygotes et les hétérozygotes[14].
-Histologie
-Bien que l'histologie puisse apporter le diagnostic définitif, la biopsie hépatique n'est pas systématique compte tenu de son caractère invasif, relativement au pronostic bénin de la maladie[5].
-L'examen histologique retrouve un dépôt pigmentaire granulaire typique, brun noir, dans le cytosol des hépatocytes[13], de localisation principalement centrolobulaire, sans autres anomalies histologiques[5].
-Examens complémentaires
-La scintigraphie hépatique à l'HIDA-Tc99M (en) utilisée chez 6 patients a permis une visualisation différée ou absente de la vésicule et des canaux biliaires et une visualisation intense, homogène et prolongée du foie[15].
-Le diagnostic formel peut être obtenu par l'analyse moléculaire du gène ABCC2[9].
-Diagnostic différentiel
-Le principal diagnostic différentiel est le syndrome de Rotor.
-Leur différence réside dans le fait que les hépatocytes ne sont pas pigmentés. On constate de même une augmentation de la bilirubine dans le sérum du patient, surtout sous la forme conjuguée.
+          <t>Diagnostic clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ictère (anciennement appelé jaunisse) léger à modéré, dû à l'augmentation des concentrations plasmatiques de la bilirubine, non accompagné de prurit révèle souvent la maladie chez un adolescent ou un adulte jeune. Le tableau clinique peut aussi retrouver des douleurs abdominales et une fatigue.
+Les urines sont foncées.
+La maladie peut être déclenchée par une affection intercurrente  ou la prise de médicaments.
+L'augmentation de l'ictère par les contraceptifs oraux et la grossesse a été souvent rapportée. Chez les femmes atteintes de la maladie, l'ictère est présent dans environ 50 % des grossesses.
+Il peut n'apparaître que dans le post-partum. La mortalité fœtale ne semble pas majorée. De ce fait, chez ces malades, aucune mesure obstétricale particulière n'est justifiée par l'apparition de l'ictère.
+L'examen clinique retrouve peu de symptômes si ce n'est parfois une hépatosplénomégalie.
 </t>
         </is>
       </c>
@@ -625,12 +632,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Traitement</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il n'existe pas de traitement curatif du syndrome de Dubin-Johnson, même si quelques cas de réduction de l'hyperbilirubinémie après administration brève de phénobarbital ont été rapportés[16].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bilirubinémie totale (à prédominance conjuguée, avec un rapport bilirubine conjuguée/bilirubine totale de 50 à 80 %) est élevée, en général entre 2 et 5 mg/dl (très rarement jusqu'à 20 mg/dl),.
+Les enzymes hépatiques (aminotransférases, phosphatases alcalines, gamma-glutamyltranspeptidase), la concentration totale en acides biliaires, l'albuminémie et le temps de Quick sont normaux. La 5'-nucléotidase (en) est normale.
+Un déficit associé en facteur VII est possible, notamment chez les iraniens et les juifs marocains,.
+La coproporphyrine urinaire[Note 1] est un bon indicateur des états homozygotes ou hétérozygotes dans le syndrome de Dubin-Johnson. La valeur normale de coproporphyrine urinaire excrétée est de 24,8 % alors qu'elles sont respectivement de 88,9 % et 31,6 % chez les homozygotes et les hétérozygotes.
 </t>
         </is>
       </c>
@@ -656,12 +672,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Évolution</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le syndrome de Dubin-Johnson est une pathologie bénigne et de bon pronostic. Il n'a jamais été observé d'évolution vers l'insuffisance hépatique, la cirrhose ou la fibrose hépatique[5].
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que l'histologie puisse apporter le diagnostic définitif, la biopsie hépatique n'est pas systématique compte tenu de son caractère invasif, relativement au pronostic bénin de la maladie.
+L'examen histologique retrouve un dépôt pigmentaire granulaire typique, brun noir, dans le cytosol des hépatocytes, de localisation principalement centrolobulaire, sans autres anomalies histologiques.
 </t>
         </is>
       </c>
@@ -687,12 +710,156 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scintigraphie hépatique à l'HIDA-Tc99M (en) utilisée chez 6 patients a permis une visualisation différée ou absente de la vésicule et des canaux biliaires et une visualisation intense, homogène et prolongée du foie.
+Le diagnostic formel peut être obtenu par l'analyse moléculaire du gène ABCC2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal diagnostic différentiel est le syndrome de Rotor.
+Leur différence réside dans le fait que les hépatocytes ne sont pas pigmentés. On constate de même une augmentation de la bilirubine dans le sérum du patient, surtout sous la forme conjuguée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pas de traitement curatif du syndrome de Dubin-Johnson, même si quelques cas de réduction de l'hyperbilirubinémie après administration brève de phénobarbital ont été rapportés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Dubin-Johnson est une pathologie bénigne et de bon pronostic. Il n'a jamais été observé d'évolution vers l'insuffisance hépatique, la cirrhose ou la fibrose hépatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Dubin-Johnson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Médecine vétérinaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce syndrome se retrouve chez des moutons Corriedale (en) normaux et mutants[17].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce syndrome se retrouve chez des moutons Corriedale (en) normaux et mutants.
 </t>
         </is>
       </c>
